--- a/biology/Médecine/Erich_Fromm/Erich_Fromm.xlsx
+++ b/biology/Médecine/Erich_Fromm/Erich_Fromm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erich Fromm, né à Francfort le 23 mars 1900 et mort à Muralto le 18 mars 1980, est un sociologue et psychanalyste américain d'origine allemande.
 Il est avec Theodor Adorno, Herbert Marcuse et d'autres, un des premiers représentants de l'École de Francfort. Il a greffé, d'une façon critique et originale qui lui est propre, la thèse freudienne sur la réalité sociale qui s'est fait jour dans l'après-guerre.
-Par ailleurs, Erich Fromm fut l'un des premiers penseurs du XXe siècle à parler de l'idée d'un revenu de base inconditionnel[1].
+Par ailleurs, Erich Fromm fut l'un des premiers penseurs du XXe siècle à parler de l'idée d'un revenu de base inconditionnel.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>L'homme et son œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erich Fromm est né à Francfort le 23 mars 1900 dans une famille juive orthodoxe. Il est l'arrière petit-fils du rabbin Seligmann Bär Bamberger[2]. Il fait ses études en droit, histoire et sociologie à l'université de Heidelberg puis à celle de Munich et enfin des études à l'Institut psychanalytique de Berlin. C'est avec Karl Landauer notamment qu'il contribue à la création de l'Institut psychanalytique de Francfort en 1929. Il est tenté par le sionisme qu'il abandonne au bout de quelques années.
-Erich Fromm est un psychanalyste analysé par Frieda Fromm-Reichmann (qui allait devenir sa femme) puis Hanns Sachs. Il est analyste depuis 1927. Il fait partie du cercle de la  Société psychanalytique de Vienne créée par Sigmund Freud. Puis il fréquente le « Séminaire des enfants » créé par Otto Fenichel en 1924, expression d'un mouvement de freudiens devenus non orthodoxes concernant le groupe des patients à traiter (personnes modestes). Erich Fromm est connu comme un sociologue marxiste ayant fait la conjonction de Karl Marx à Sigmund Freud (voir Freudo-marxisme et Humanisme-marxisme). Freud en politique a une approche élitiste de la société et a une vision de l'individu selon la mythologie, en totale indépendance avec le temps présent, avec l'Histoire. Fromm prône[3] l'adaptation de la psychanalyse à la dynamique sociale à partir d'une interprétation humaniste de Marx.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erich Fromm est né à Francfort le 23 mars 1900 dans une famille juive orthodoxe. Il est l'arrière petit-fils du rabbin Seligmann Bär Bamberger. Il fait ses études en droit, histoire et sociologie à l'université de Heidelberg puis à celle de Munich et enfin des études à l'Institut psychanalytique de Berlin. C'est avec Karl Landauer notamment qu'il contribue à la création de l'Institut psychanalytique de Francfort en 1929. Il est tenté par le sionisme qu'il abandonne au bout de quelques années.
+Erich Fromm est un psychanalyste analysé par Frieda Fromm-Reichmann (qui allait devenir sa femme) puis Hanns Sachs. Il est analyste depuis 1927. Il fait partie du cercle de la  Société psychanalytique de Vienne créée par Sigmund Freud. Puis il fréquente le « Séminaire des enfants » créé par Otto Fenichel en 1924, expression d'un mouvement de freudiens devenus non orthodoxes concernant le groupe des patients à traiter (personnes modestes). Erich Fromm est connu comme un sociologue marxiste ayant fait la conjonction de Karl Marx à Sigmund Freud (voir Freudo-marxisme et Humanisme-marxisme). Freud en politique a une approche élitiste de la société et a une vision de l'individu selon la mythologie, en totale indépendance avec le temps présent, avec l'Histoire. Fromm prône l'adaptation de la psychanalyse à la dynamique sociale à partir d'une interprétation humaniste de Marx.
 </t>
         </is>
       </c>
